--- a/backend/data/queries.xlsx
+++ b/backend/data/queries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Gopal</t>
+  </si>
+  <si>
+    <t>Goyal</t>
+  </si>
+  <si>
+    <t>goyal11.gopal@gmail.com</t>
+  </si>
+  <si>
+    <t>09462976187</t>
+  </si>
+  <si>
+    <t>wassup</t>
+  </si>
+  <si>
+    <t>helloooo</t>
   </si>
 </sst>
 </file>
@@ -70,9 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,52 +395,188 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.005" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.005" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.005" style="1" customWidth="1"/>
-    <col min="5" max="6" width="40.005" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.005" customWidth="1"/>
+    <col min="3" max="3" width="25.005" customWidth="1"/>
+    <col min="4" max="4" width="15.005" customWidth="1"/>
+    <col min="5" max="6" width="40.005" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>

--- a/backend/data/queries.xlsx
+++ b/backend/data/queries.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Queries" state="visible" r:id="rId4"/>
   </sheets>
@@ -14,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -34,25 +31,46 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Piyush</t>
+  </si>
+  <si>
+    <t>Goyal</t>
+  </si>
+  <si>
+    <t>piyushgoyal3003@gmail.com</t>
+  </si>
+  <si>
+    <t>06378108368</t>
+  </si>
+  <si>
+    <t>hgfgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyush </t>
+  </si>
+  <si>
+    <t>6378108368</t>
+  </si>
+  <si>
+    <t>mnugyghh</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Gopal</t>
-  </si>
-  <si>
-    <t>Goyal</t>
-  </si>
-  <si>
-    <t>goyal11.gopal@gmail.com</t>
-  </si>
-  <si>
-    <t>09462976187</t>
-  </si>
-  <si>
-    <t>wassup</t>
-  </si>
-  <si>
-    <t>helloooo</t>
+    <t>New</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>qwerty!!</t>
+  </si>
+  <si>
+    <t>Submit</t>
   </si>
 </sst>
 </file>
@@ -112,10 +130,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -153,71 +171,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -241,53 +259,50 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -297,7 +312,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -306,7 +321,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -315,7 +330,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -323,10 +338,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -355,7 +370,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -368,12 +383,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -385,29 +401,62 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <dimension ref="A1:F45"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="15.005" customWidth="1"/>
-    <col min="3" max="3" width="25.005" customWidth="1"/>
-    <col min="4" max="4" width="15.005" customWidth="1"/>
-    <col min="5" max="6" width="40.005" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,155 +481,751 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/backend/data/queries.xlsx
+++ b/backend/data/queries.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -71,6 +71,36 @@
   </si>
   <si>
     <t>Submit</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Temporary!</t>
+  </si>
+  <si>
+    <t>New Message!!</t>
+  </si>
+  <si>
+    <t>Query!!</t>
+  </si>
+  <si>
+    <t>OOOOOOOO!!</t>
+  </si>
+  <si>
+    <t>jfgjhgch</t>
+  </si>
+  <si>
+    <t>hgc mbvmjhgnb</t>
+  </si>
+  <si>
+    <t>ncvjbn</t>
+  </si>
+  <si>
+    <t>Hello!</t>
   </si>
 </sst>
 </file>
@@ -447,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F58"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -1224,6 +1254,227 @@
         <v>19</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
